--- a/public/data/yield_loss/yield_table_madagascar.xlsx
+++ b/public/data/yield_loss/yield_table_madagascar.xlsx
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2474.77</v>
+        <v>2474.74</v>
       </c>
       <c r="G5" t="n">
         <v>0.91</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>552.25</v>
+        <v>551.86</v>
       </c>
       <c r="G6" t="n">
         <v>0.63</v>
@@ -1559,10 +1559,10 @@
         <v>7.27</v>
       </c>
       <c r="K6" t="n">
-        <v>60.07</v>
+        <v>60.04</v>
       </c>
       <c r="L6" t="n">
-        <v>138.73</v>
+        <v>138.69</v>
       </c>
       <c r="M6" t="n">
         <v>6.6</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>777</v>
+        <v>775.65</v>
       </c>
       <c r="G7" t="n">
         <v>22.29</v>
@@ -1639,13 +1639,13 @@
         <v>6.21</v>
       </c>
       <c r="K7" t="n">
-        <v>91.15</v>
+        <v>90.83</v>
       </c>
       <c r="L7" t="n">
-        <v>551.4</v>
+        <v>544.77</v>
       </c>
       <c r="M7" t="n">
-        <v>52.97</v>
+        <v>51.96</v>
       </c>
       <c r="N7" t="n">
         <v>336.38</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1889.15</v>
+        <v>1887.41</v>
       </c>
       <c r="G8" t="n">
         <v>13.13</v>
@@ -1719,13 +1719,13 @@
         <v>1.49</v>
       </c>
       <c r="K8" t="n">
-        <v>18.14</v>
+        <v>18.12</v>
       </c>
       <c r="L8" t="n">
-        <v>667.43</v>
+        <v>667.09</v>
       </c>
       <c r="M8" t="n">
-        <v>16.13</v>
+        <v>16.12</v>
       </c>
       <c r="N8" t="n">
         <v>939.87</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1654.04</v>
+        <v>1620.31</v>
       </c>
       <c r="G9" t="n">
         <v>208.83</v>
@@ -1799,16 +1799,16 @@
         <v>19.16</v>
       </c>
       <c r="K9" t="n">
-        <v>88.13</v>
+        <v>87.03</v>
       </c>
       <c r="L9" t="n">
-        <v>101.21</v>
+        <v>96.99</v>
       </c>
       <c r="M9" t="n">
-        <v>43.5</v>
+        <v>42.27</v>
       </c>
       <c r="N9" t="n">
-        <v>205.81</v>
+        <v>205.7</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="R9" t="n">
         <v>494.89</v>
@@ -1844,7 +1844,7 @@
         <v>1.77</v>
       </c>
       <c r="Z9" t="n">
-        <v>94.32</v>
+        <v>94.31</v>
       </c>
     </row>
     <row r="10">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3506.65</v>
+        <v>3397.31</v>
       </c>
       <c r="G10" t="n">
         <v>581.75</v>
@@ -1876,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="K10" t="n">
-        <v>27.34</v>
+        <v>27.45</v>
       </c>
       <c r="L10" t="n">
-        <v>464.32</v>
+        <v>450.66</v>
       </c>
       <c r="M10" t="n">
-        <v>17.86</v>
+        <v>17.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1922.8</v>
+        <v>1923.26</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1124.89</v>
+        <v>1123.99</v>
       </c>
       <c r="R10" t="n">
-        <v>39.37</v>
+        <v>43.46</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9.68</v>
+        <v>9.77</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>10.38</v>
       </c>
       <c r="W10" t="n">
-        <v>15876.05</v>
+        <v>15881.59</v>
       </c>
       <c r="X10" t="n">
         <v>0.04</v>
@@ -1924,7 +1924,7 @@
         <v>3.59</v>
       </c>
       <c r="Z10" t="n">
-        <v>34.96</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="11">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>444.54</v>
+        <v>436.53</v>
       </c>
       <c r="G11" t="n">
         <v>29.66</v>
@@ -1959,16 +1959,16 @@
         <v>1.7</v>
       </c>
       <c r="K11" t="n">
-        <v>8.57</v>
+        <v>8.45</v>
       </c>
       <c r="L11" t="n">
-        <v>45.53</v>
+        <v>42.75</v>
       </c>
       <c r="M11" t="n">
-        <v>7.93</v>
+        <v>7.65</v>
       </c>
       <c r="N11" t="n">
-        <v>117.61</v>
+        <v>117.5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="R11" t="n">
         <v>10.43</v>
@@ -2004,7 +2004,7 @@
         <v>1.77</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.57</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="12">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3823.3</v>
+        <v>3630.42</v>
       </c>
       <c r="G12" t="n">
         <v>1211.12</v>
@@ -2039,16 +2039,16 @@
         <v>96.45</v>
       </c>
       <c r="K12" t="n">
-        <v>523.08</v>
+        <v>484.85</v>
       </c>
       <c r="L12" t="n">
-        <v>283.01</v>
+        <v>271.96</v>
       </c>
       <c r="M12" t="n">
-        <v>195.46</v>
+        <v>191.16</v>
       </c>
       <c r="N12" t="n">
-        <v>2066.92</v>
+        <v>2065.91</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>557.19</v>
+        <v>556.29</v>
       </c>
       <c r="R12" t="n">
         <v>1752.88</v>
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>36.34</v>
+        <v>36.33</v>
       </c>
       <c r="U12" t="n">
-        <v>5.53</v>
+        <v>5.21</v>
       </c>
       <c r="V12" t="n">
         <v>693.56</v>
@@ -2084,7 +2084,7 @@
         <v>1.79</v>
       </c>
       <c r="Z12" t="n">
-        <v>513.36</v>
+        <v>513.34</v>
       </c>
     </row>
     <row r="13">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>120.35</v>
+        <v>120.38</v>
       </c>
       <c r="G14" t="n">
         <v>1.84</v>
@@ -2202,13 +2202,13 @@
         <v>3.93</v>
       </c>
       <c r="L14" t="n">
-        <v>577.09</v>
+        <v>577.15</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>864.05</v>
+        <v>864.19</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0.03</v>
       </c>
       <c r="W14" t="n">
-        <v>133.15</v>
+        <v>133.16</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1034.12</v>
+        <v>1032.71</v>
       </c>
       <c r="G16" t="n">
         <v>10.59</v>
@@ -2359,13 +2359,13 @@
         <v>5.11</v>
       </c>
       <c r="K16" t="n">
-        <v>45.12</v>
+        <v>45.09</v>
       </c>
       <c r="L16" t="n">
-        <v>865.28</v>
+        <v>864.14</v>
       </c>
       <c r="M16" t="n">
-        <v>29.22</v>
+        <v>29.13</v>
       </c>
       <c r="N16" t="n">
         <v>891.69</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2221.99</v>
+        <v>2202.93</v>
       </c>
       <c r="G17" t="n">
         <v>85.59</v>
@@ -2439,13 +2439,13 @@
         <v>26.54</v>
       </c>
       <c r="K17" t="n">
-        <v>120.64</v>
+        <v>119.46</v>
       </c>
       <c r="L17" t="n">
-        <v>751.88</v>
+        <v>750.33</v>
       </c>
       <c r="M17" t="n">
-        <v>75.51</v>
+        <v>74.05</v>
       </c>
       <c r="N17" t="n">
         <v>1040.2</v>
@@ -2469,7 +2469,7 @@
         <v>10.69</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
         <v>454.47</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>336.21</v>
+        <v>334.09</v>
       </c>
       <c r="G18" t="n">
         <v>51.51</v>
@@ -2519,13 +2519,13 @@
         <v>12.54</v>
       </c>
       <c r="K18" t="n">
-        <v>351.71</v>
+        <v>350.53</v>
       </c>
       <c r="L18" t="n">
-        <v>5196.06</v>
+        <v>5102.34</v>
       </c>
       <c r="M18" t="n">
-        <v>63.3</v>
+        <v>62.9</v>
       </c>
       <c r="N18" t="n">
         <v>700</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2519.45</v>
+        <v>2472.07</v>
       </c>
       <c r="G19" t="n">
         <v>235.67</v>
@@ -2599,13 +2599,13 @@
         <v>87.6</v>
       </c>
       <c r="K19" t="n">
-        <v>689.16</v>
+        <v>685.47</v>
       </c>
       <c r="L19" t="n">
-        <v>249.17</v>
+        <v>246.27</v>
       </c>
       <c r="M19" t="n">
-        <v>176.44</v>
+        <v>172.79</v>
       </c>
       <c r="N19" t="n">
         <v>1788.98</v>
@@ -2629,7 +2629,7 @@
         <v>13.62</v>
       </c>
       <c r="U19" t="n">
-        <v>12.08</v>
+        <v>12.02</v>
       </c>
       <c r="V19" t="n">
         <v>811.85</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>243.49</v>
+        <v>226.4</v>
       </c>
       <c r="G21" t="n">
         <v>129.72</v>
@@ -2759,13 +2759,13 @@
         <v>3.69</v>
       </c>
       <c r="K21" t="n">
-        <v>16.52</v>
+        <v>15.79</v>
       </c>
       <c r="L21" t="n">
-        <v>23.04</v>
+        <v>21.74</v>
       </c>
       <c r="M21" t="n">
-        <v>4.82</v>
+        <v>4.73</v>
       </c>
       <c r="N21" t="n">
         <v>80.21</v>
